--- a/tabel-1.xlsx
+++ b/tabel-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Workstation\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\waavenew\AEP-anaylsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,17 @@
     <sheet name="tabel-1 export" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="table bmld vs AEP" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'table bmld vs AEP'!$A$1:$E$14</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="491">
   <si>
     <t>Key</t>
   </si>
@@ -1369,13 +1372,150 @@
   </si>
   <si>
     <t>IEEE Engineering in Medicine and Biology Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behaviural measure </t>
+  </si>
+  <si>
+    <t>Objective masue</t>
+  </si>
+  <si>
+    <t>finding</t>
+  </si>
+  <si>
+    <t>ASSR</t>
+  </si>
+  <si>
+    <t>BMLD</t>
+  </si>
+  <si>
+    <t>LEAP</t>
+  </si>
+  <si>
+    <t>LAEP characteristics  are similar to but not identical to behavioral MLD.</t>
+  </si>
+  <si>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>Subjects with a delayed latency or no wave III were linked to lower BMLDs</t>
+  </si>
+  <si>
+    <t>larger FFR signal-to-noise ratios in antiphasic conditions relative to FFR signal-to-noise ratios in homophasic conditions, consistent with unmasking</t>
+  </si>
+  <si>
+    <t>The ASSR BMLDs were much lower than the behavioural BMLDs' elicited responses.</t>
+  </si>
+  <si>
+    <t>IPM-FRs</t>
+  </si>
+  <si>
+    <t>the behavioral IPD discrimination thresholds and the dynamic range of the IPM-FR were still significantly correlated</t>
+  </si>
+  <si>
+    <t>MLR</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>failed to demonstrate MLD-like characteristics in the middle latency potentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simalrirty in P2 and BMLD was  found </t>
+  </si>
+  <si>
+    <t>IPM-FR was predictive of performance on the binaural frequency modulation detection task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPM-FR was not predictive   of the spatial release-from-masking task </t>
+  </si>
+  <si>
+    <t>P2 latencies between monCI and bimodal condition of the CI users showed significant correlations.</t>
+  </si>
+  <si>
+    <t>P2 latencies</t>
+  </si>
+  <si>
+    <t>Audiometery</t>
+  </si>
+  <si>
+    <t>For diotic stimuli, behavioural and CAEP thresholds were highly correlated  </t>
+  </si>
+  <si>
+    <t>CAEP</t>
+  </si>
+  <si>
+    <t>40hz ASSR</t>
+  </si>
+  <si>
+    <t>40-Hz ASSR thresholds do not reflect the BMLD</t>
+  </si>
+  <si>
+    <t>Differences in FFR amplitude  is effective predictor of behavioural BMLDs.</t>
+  </si>
+  <si>
+    <r>
+      <t>C G Fowler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF5B616B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> David A. Eddins</t>
+  </si>
+  <si>
+    <t>Ieda Maria Ishida</t>
+  </si>
+  <si>
+    <t>Z Kevanishvili</t>
+  </si>
+  <si>
+    <t>Z Lagidze</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mikami </t>
+  </si>
+  <si>
+    <t>While Jerger</t>
+  </si>
+  <si>
+    <t>Wilson and Krishnan</t>
+  </si>
+  <si>
+    <t>Wong and Stapells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte Vercammen </t>
+  </si>
+  <si>
+    <t>Tobias Balkenhol</t>
+  </si>
+  <si>
+    <t>Christopher G. Clinard</t>
+  </si>
+  <si>
+    <t>IPD thresholds</t>
+  </si>
+  <si>
+    <t>FM thresholds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,6 +1663,25 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF5B616B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1882,7 +2041,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1913,6 +2072,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2239,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="E26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F61"/>
+    <sheetView topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,4 +6412,268 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1982</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1992</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1996</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1996</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2004</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2005</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2009</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E14">
+    <sortCondition ref="B2:B14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tabel-1.xlsx
+++ b/tabel-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\waavenew\AEP-anaylsis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\AEP-anaylsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06DA048-CA9E-473D-9839-4D8347719DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel-1 export" sheetId="1" r:id="rId1"/>
@@ -1514,7 +1515,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2405,10 +2406,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -4173,22 +4174,22 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:V61">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:V61">
     <sortCondition descending="1" ref="C2:C61"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="J10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A59" sqref="A2:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,12 +5204,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E59">
     <sortCondition descending="1" ref="B2:B59"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" display="https://link.springer.com/journal/10162"/>
-    <hyperlink ref="D19" r:id="rId2" display="https://journals.physiology.org/journal/jn"/>
+    <hyperlink ref="D39" r:id="rId1" display="https://link.springer.com/journal/10162" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D19" r:id="rId2" display="https://journals.physiology.org/journal/jn" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5216,7 +5217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6407,19 +6408,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F49" r:id="rId1" display="https://link.springer.com/journal/10162"/>
-    <hyperlink ref="F35" r:id="rId2" display="https://journals.physiology.org/journal/jn"/>
+    <hyperlink ref="F49" r:id="rId1" display="https://link.springer.com/journal/10162" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F35" r:id="rId2" display="https://journals.physiology.org/journal/jn" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6670,7 +6671,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
     <sortCondition ref="B2:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
